--- a/pred_ohlcv/54_21/2020-01-15 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 DAD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-33270.71717223</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>235553.479179499</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>219955.244979499</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>230383.909579499</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>226079.773079499</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>213964.510179499</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>255465.218979499</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>245739.549879499</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>242943.142779499</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>257269.982179499</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>250302.815179499</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>258941.860579499</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>258178.361979499</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>259956.588379499</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>259928.025979499</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>269265.655579499</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>273491.032679499</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>290504.848979499</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>292726.804579499</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>262406.017979499</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>257831.354679499</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>241577.961479499</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>254719.244679499</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>252163.233479499</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>252163.233479499</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>245217.328679499</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>234177.282179499</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>230903.204879499</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>226114.907179499</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>279720.879279499</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>274993.365679499</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-91343.96972050103</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-81611.83442050104</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-92590.18982050105</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-110161.0072488321</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-106937.031848832</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-104230.852348832</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>141281.1998793619</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>142021.3237793619</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>140313.8971793619</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>140318.8971793619</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>138902.4184508859</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>148572.0122508859</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>135573.7335508859</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>139264.8346508859</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>138996.0731508859</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>137338.3682508859</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 DAD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-33270.71717223</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-33689.16007223</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-57984.07487223</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-66286.46777223</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-34305.45127223</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>235553.479179499</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>219955.244979499</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>230383.909579499</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>226079.773079499</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>213964.510179499</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>255465.218979499</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>245739.549879499</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>242943.142779499</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>257269.982179499</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>250302.815179499</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>258941.860579499</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>258178.361979499</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>259956.588379499</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>259928.025979499</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>269265.655579499</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>273491.032679499</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>290504.848979499</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>292726.804579499</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>262406.017979499</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>257831.354679499</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>241577.961479499</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>254719.244679499</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>252163.233479499</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>252163.233479499</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>245217.328679499</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>234177.282179499</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>230903.204879499</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>226114.907179499</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>279720.879279499</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>274993.365679499</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-91343.96972050103</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-81611.83442050104</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-92590.18982050105</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-110161.0072488321</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-106937.031848832</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-104230.852348832</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>150361.1649793619</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>141281.1998793619</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>142021.3237793619</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>140313.8971793619</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>140318.8971793619</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>138902.4184508859</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>148572.0122508859</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>135573.7335508859</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>139264.8346508859</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>138996.0731508859</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>137338.3682508859</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
